--- a/ITProjectManagement/AgilePM/ProductBacklog.xlsx
+++ b/ITProjectManagement/AgilePM/ProductBacklog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectExecution\AgilePM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\AgilePM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -6632,7 +6632,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -18187,7 +18187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
